--- a/Assignment5/Book1.xlsx
+++ b/Assignment5/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Semester\CompArch\COARCH\Assignment5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672F0B22-EAF8-4184-AB3E-1FC712E141BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2DDEE1-F55D-4DFD-B984-277DE588F1CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="10785" xr2:uid="{9889510D-5752-4D2F-BDFD-9524CB4CFDD8}"/>
   </bookViews>
@@ -325,7 +325,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -338,14 +338,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Access</a:t>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t>Access Time(ns) vs n-way</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time(ns) vs n-way</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -362,7 +357,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -624,7 +619,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -686,7 +681,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -728,7 +723,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -809,7 +804,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -822,14 +817,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Leakage</a:t>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>Leakage power(mW) vs n-way</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> power(mW) vs n-way</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -846,7 +836,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1108,7 +1098,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1170,7 +1160,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1212,7 +1202,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1293,7 +1283,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1306,14 +1296,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dynamic</a:t>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>Dynamic read energy per access(nJ) vs n-way</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> read energy per access(nJ) vs n-way</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1330,7 +1315,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1592,7 +1577,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1654,7 +1639,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1696,7 +1681,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1777,7 +1762,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1790,14 +1775,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cache</a:t>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>Cache area(mm) vs n-way</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> area(mm) vs n-way</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1814,7 +1794,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2076,7 +2056,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2138,7 +2118,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2180,7 +2160,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4471,13 +4451,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>91108</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>202097</xdr:rowOff>
+      <xdr:rowOff>202096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>372717</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>87797</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4504,16 +4484,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>679173</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>127551</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40997</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>70400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>99391</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>13251</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4540,16 +4520,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>223630</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>19878</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>96078</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4576,16 +4556,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>11596</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>770283</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>2070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>265044</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>87796</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4912,22 +4892,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E044E07-AF30-471F-8B83-3DA6DA3F24C9}">
   <dimension ref="B2:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q123" sqref="Q123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
